--- a/data/su/original_data/su_2021.xlsx
+++ b/data/su/original_data/su_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilla/Documents/repos/open_apc_se/data/su/original_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilla/Documents/repos/openapc-se/data/su/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE00877D-BBB9-2947-9721-CF67BEF23BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD5DD2-8F3D-2342-B1EB-D9CB1D6EA3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -893,9 +893,6 @@
     <t>10.1039/D1RA05697B</t>
   </si>
   <si>
-    <t>D0RA10220B</t>
-  </si>
-  <si>
     <t>10.1177/23982128211007772</t>
   </si>
   <si>
@@ -1704,6 +1701,9 @@
   </si>
   <si>
     <t>10.5324/barn.v38i1.3575</t>
+  </si>
+  <si>
+    <t>10.1039/d0ra10220b</t>
   </si>
 </sst>
 </file>
@@ -2063,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D315" sqref="D315"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2105,16 +2105,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2131,13 +2131,13 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2154,13 +2154,13 @@
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2177,13 +2177,13 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2200,13 +2200,13 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2223,13 +2223,13 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2246,13 +2246,13 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2269,13 +2269,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2292,13 +2292,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2315,13 +2315,13 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2338,13 +2338,13 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2361,13 +2361,13 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2384,13 +2384,13 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2407,13 +2407,13 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2430,13 +2430,13 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2453,13 +2453,13 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2476,13 +2476,13 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2499,13 +2499,13 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2545,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2568,13 +2568,13 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2591,13 +2591,13 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2614,13 +2614,13 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,13 +2637,13 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2657,16 +2657,16 @@
         <v>46105.8</v>
       </c>
       <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
         <v>310</v>
       </c>
-      <c r="E25" t="s">
-        <v>311</v>
-      </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2683,13 +2683,13 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2706,13 +2706,13 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,13 +2729,13 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2752,13 +2752,13 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,13 +2775,13 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2798,13 +2798,13 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2821,13 +2821,13 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2844,13 +2844,13 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2867,13 +2867,13 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2890,13 +2890,13 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2913,13 +2913,13 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2936,13 +2936,13 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2959,13 +2959,13 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2982,13 +2982,13 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,13 +3005,13 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3028,13 +3028,13 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3051,13 +3051,13 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3074,13 +3074,13 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3097,13 +3097,13 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,13 +3120,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3143,13 +3143,13 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,13 +3166,13 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3189,13 +3189,13 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3212,13 +3212,13 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3235,13 +3235,13 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,13 +3258,13 @@
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F51" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3281,13 +3281,13 @@
         <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3304,13 +3304,13 @@
         <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,13 +3327,13 @@
         <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3350,13 +3350,13 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3373,13 +3373,13 @@
         <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3396,13 +3396,13 @@
         <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3419,13 +3419,13 @@
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3442,13 +3442,13 @@
         <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3465,13 +3465,13 @@
         <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3488,13 +3488,13 @@
         <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3511,13 +3511,13 @@
         <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3534,13 +3534,13 @@
         <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3557,13 +3557,13 @@
         <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3580,13 +3580,13 @@
         <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3603,13 +3603,13 @@
         <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3626,13 +3626,13 @@
         <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3649,13 +3649,13 @@
         <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3672,13 +3672,13 @@
         <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3695,13 +3695,13 @@
         <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3718,13 +3718,13 @@
         <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3741,13 +3741,13 @@
         <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3764,13 +3764,13 @@
         <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3787,13 +3787,13 @@
         <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3810,13 +3810,13 @@
         <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3833,13 +3833,13 @@
         <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3856,13 +3856,13 @@
         <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3879,13 +3879,13 @@
         <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3902,13 +3902,13 @@
         <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3925,13 +3925,13 @@
         <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3948,13 +3948,13 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G81" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3971,13 +3971,13 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F82" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G82" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3994,13 +3994,13 @@
         <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4017,13 +4017,13 @@
         <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G84" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4040,13 +4040,13 @@
         <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4063,13 +4063,13 @@
         <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G86" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4086,13 +4086,13 @@
         <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G87" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4109,13 +4109,13 @@
         <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4132,13 +4132,13 @@
         <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G89" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4155,13 +4155,13 @@
         <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4178,13 +4178,13 @@
         <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4201,13 +4201,13 @@
         <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4224,13 +4224,13 @@
         <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4247,13 +4247,13 @@
         <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G94" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4270,13 +4270,13 @@
         <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4293,13 +4293,13 @@
         <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4316,13 +4316,13 @@
         <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -4339,13 +4339,13 @@
         <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4362,13 +4362,13 @@
         <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4385,13 +4385,13 @@
         <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4408,13 +4408,13 @@
         <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4431,13 +4431,13 @@
         <v>110</v>
       </c>
       <c r="E102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4454,13 +4454,13 @@
         <v>111</v>
       </c>
       <c r="E103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -4477,13 +4477,13 @@
         <v>112</v>
       </c>
       <c r="E104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4500,13 +4500,13 @@
         <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F105" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4523,13 +4523,13 @@
         <v>114</v>
       </c>
       <c r="E106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F106" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4546,13 +4546,13 @@
         <v>115</v>
       </c>
       <c r="E107" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -4569,13 +4569,13 @@
         <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -4592,13 +4592,13 @@
         <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G109" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -4615,13 +4615,13 @@
         <v>117</v>
       </c>
       <c r="E110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -4638,13 +4638,13 @@
         <v>118</v>
       </c>
       <c r="E111" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -4661,13 +4661,13 @@
         <v>119</v>
       </c>
       <c r="E112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F112" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G112" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4684,13 +4684,13 @@
         <v>120</v>
       </c>
       <c r="E113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4707,13 +4707,13 @@
         <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G114" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4730,13 +4730,13 @@
         <v>122</v>
       </c>
       <c r="E115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G115" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4753,13 +4753,13 @@
         <v>123</v>
       </c>
       <c r="E116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G116" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4776,13 +4776,13 @@
         <v>124</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4799,13 +4799,13 @@
         <v>125</v>
       </c>
       <c r="E118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4822,13 +4822,13 @@
         <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G119" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,13 +4845,13 @@
         <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4868,13 +4868,13 @@
         <v>128</v>
       </c>
       <c r="E121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G121" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4891,13 +4891,13 @@
         <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G122" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4914,13 +4914,13 @@
         <v>130</v>
       </c>
       <c r="E123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G123" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4937,13 +4937,13 @@
         <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F124" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4960,13 +4960,13 @@
         <v>132</v>
       </c>
       <c r="E125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4983,13 +4983,13 @@
         <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5006,13 +5006,13 @@
         <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G127" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5029,13 +5029,13 @@
         <v>135</v>
       </c>
       <c r="E128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F128" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G128" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5052,13 +5052,13 @@
         <v>136</v>
       </c>
       <c r="E129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G129" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5075,13 +5075,13 @@
         <v>137</v>
       </c>
       <c r="E130" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G130" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5098,13 +5098,13 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F131" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -5121,13 +5121,13 @@
         <v>139</v>
       </c>
       <c r="E132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5144,13 +5144,13 @@
         <v>140</v>
       </c>
       <c r="E133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F133" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5167,13 +5167,13 @@
         <v>141</v>
       </c>
       <c r="E134" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F134" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G134" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5190,13 +5190,13 @@
         <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F135" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G135" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5213,13 +5213,13 @@
         <v>143</v>
       </c>
       <c r="E136" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5233,16 +5233,16 @@
         <v>15581.72</v>
       </c>
       <c r="D137" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G137" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5259,13 +5259,13 @@
         <v>144</v>
       </c>
       <c r="E138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G138" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -5282,13 +5282,13 @@
         <v>145</v>
       </c>
       <c r="E139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5305,13 +5305,13 @@
         <v>146</v>
       </c>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F140" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G140" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5328,13 +5328,13 @@
         <v>147</v>
       </c>
       <c r="E141" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F141" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -5351,13 +5351,13 @@
         <v>148</v>
       </c>
       <c r="E142" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F142" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G142" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -5371,16 +5371,16 @@
         <v>35890.75</v>
       </c>
       <c r="D143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F143" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G143" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5397,13 +5397,13 @@
         <v>149</v>
       </c>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -5420,13 +5420,13 @@
         <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -5443,13 +5443,13 @@
         <v>151</v>
       </c>
       <c r="E146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F146" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G146" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -5466,13 +5466,13 @@
         <v>152</v>
       </c>
       <c r="E147" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G147" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -5489,13 +5489,13 @@
         <v>153</v>
       </c>
       <c r="E148" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -5512,13 +5512,13 @@
         <v>154</v>
       </c>
       <c r="E149" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G149" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5535,13 +5535,13 @@
         <v>155</v>
       </c>
       <c r="E150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F150" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -5558,13 +5558,13 @@
         <v>156</v>
       </c>
       <c r="E151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -5581,13 +5581,13 @@
         <v>157</v>
       </c>
       <c r="E152" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F152" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -5604,13 +5604,13 @@
         <v>158</v>
       </c>
       <c r="E153" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F153" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G153" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -5627,13 +5627,13 @@
         <v>159</v>
       </c>
       <c r="E154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F154" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G154" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -5650,13 +5650,13 @@
         <v>160</v>
       </c>
       <c r="E155" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -5673,13 +5673,13 @@
         <v>161</v>
       </c>
       <c r="E156" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G156" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5696,13 +5696,13 @@
         <v>162</v>
       </c>
       <c r="E157" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G157" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5719,13 +5719,13 @@
         <v>163</v>
       </c>
       <c r="E158" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -5742,13 +5742,13 @@
         <v>164</v>
       </c>
       <c r="E159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -5765,13 +5765,13 @@
         <v>165</v>
       </c>
       <c r="E160" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G160" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -5788,13 +5788,13 @@
         <v>166</v>
       </c>
       <c r="E161" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G161" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -5811,13 +5811,13 @@
         <v>167</v>
       </c>
       <c r="E162" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G162" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -5834,13 +5834,13 @@
         <v>168</v>
       </c>
       <c r="E163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G163" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -5857,13 +5857,13 @@
         <v>169</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -5880,13 +5880,13 @@
         <v>170</v>
       </c>
       <c r="E165" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -5903,13 +5903,13 @@
         <v>171</v>
       </c>
       <c r="E166" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G166" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -5923,16 +5923,16 @@
         <v>10632.82</v>
       </c>
       <c r="D167" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E167" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G167" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -5949,13 +5949,13 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -5972,13 +5972,13 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G169" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5995,13 +5995,13 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G170" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6018,13 +6018,13 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G171" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -6041,13 +6041,13 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -6064,13 +6064,13 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G173" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -6087,13 +6087,13 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6110,13 +6110,13 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -6133,13 +6133,13 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G176" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -6156,13 +6156,13 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G177" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6179,13 +6179,13 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G178" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -6202,13 +6202,13 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G179" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -6225,13 +6225,13 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G180" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -6248,13 +6248,13 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F181" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -6271,13 +6271,13 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G182" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -6294,13 +6294,13 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G183" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6317,13 +6317,13 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G184" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6340,13 +6340,13 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G185" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6363,13 +6363,13 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F186" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G186" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6386,13 +6386,13 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F187" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6409,13 +6409,13 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G189" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -6455,13 +6455,13 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G190" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -6478,13 +6478,13 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -6501,13 +6501,13 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F192" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G192" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -6524,13 +6524,13 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G193" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -6547,13 +6547,13 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G194" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -6570,13 +6570,13 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G195" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -6593,13 +6593,13 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G196" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -6616,13 +6616,13 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F197" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G197" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -6639,13 +6639,13 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G198" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -6662,13 +6662,13 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F199" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G199" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -6685,13 +6685,13 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F200" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G200" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -6708,13 +6708,13 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F201" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G201" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -6731,13 +6731,13 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F202" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G202" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -6754,13 +6754,13 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F203" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -6777,13 +6777,13 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G204" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -6800,13 +6800,13 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G205" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -6823,13 +6823,13 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F206" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G206" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -6846,13 +6846,13 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G207" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -6869,13 +6869,13 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F208" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G208" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -6892,13 +6892,13 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F209" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G209" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -6915,13 +6915,13 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F210" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G210" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -6938,13 +6938,13 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F211" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G211" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -6961,13 +6961,13 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F212" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G212" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -6984,13 +6984,13 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F213" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G213" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -7007,13 +7007,13 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F214" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G214" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -7030,13 +7030,13 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F215" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G215" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -7053,13 +7053,13 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F216" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G216" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -7076,13 +7076,13 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F217" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G217" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -7096,16 +7096,16 @@
         <v>17721.36</v>
       </c>
       <c r="D218" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E218" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F218" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G218" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -7122,13 +7122,13 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G219" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -7145,13 +7145,13 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F220" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G220" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -7165,16 +7165,16 @@
         <v>10942.61</v>
       </c>
       <c r="D221" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E221" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F221" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G221" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -7191,13 +7191,13 @@
         <v>224</v>
       </c>
       <c r="E222" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F222" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G222" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -7214,13 +7214,13 @@
         <v>225</v>
       </c>
       <c r="E223" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F223" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G223" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -7237,13 +7237,13 @@
         <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F224" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G224" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -7260,13 +7260,13 @@
         <v>227</v>
       </c>
       <c r="E225" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F225" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G225" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -7283,13 +7283,13 @@
         <v>228</v>
       </c>
       <c r="E226" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F226" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G226" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -7306,13 +7306,13 @@
         <v>229</v>
       </c>
       <c r="E227" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F227" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G227" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -7329,13 +7329,13 @@
         <v>230</v>
       </c>
       <c r="E228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F228" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G228" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -7352,13 +7352,13 @@
         <v>231</v>
       </c>
       <c r="E229" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F229" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G229" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7375,13 +7375,13 @@
         <v>232</v>
       </c>
       <c r="E230" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G230" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -7398,13 +7398,13 @@
         <v>233</v>
       </c>
       <c r="E231" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F231" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G231" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -7421,13 +7421,13 @@
         <v>234</v>
       </c>
       <c r="E232" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F232" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G232" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -7444,13 +7444,13 @@
         <v>235</v>
       </c>
       <c r="E233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F233" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G233" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -7467,13 +7467,13 @@
         <v>236</v>
       </c>
       <c r="E234" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F234" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G234" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7490,13 +7490,13 @@
         <v>237</v>
       </c>
       <c r="E235" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F235" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G235" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7513,13 +7513,13 @@
         <v>238</v>
       </c>
       <c r="E236" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F236" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G236" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -7536,13 +7536,13 @@
         <v>239</v>
       </c>
       <c r="E237" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F237" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G237" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -7559,13 +7559,13 @@
         <v>240</v>
       </c>
       <c r="E238" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F238" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G238" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -7582,13 +7582,13 @@
         <v>241</v>
       </c>
       <c r="E239" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F239" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -7605,13 +7605,13 @@
         <v>242</v>
       </c>
       <c r="E240" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G240" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -7628,13 +7628,13 @@
         <v>52</v>
       </c>
       <c r="E241" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G241" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -7651,13 +7651,13 @@
         <v>53</v>
       </c>
       <c r="E242" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G242" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -7674,13 +7674,13 @@
         <v>54</v>
       </c>
       <c r="E243" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G243" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7697,13 +7697,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F244" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G244" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -7717,16 +7717,16 @@
         <v>2002.4</v>
       </c>
       <c r="D245" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E245" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F245" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G245" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -7743,13 +7743,13 @@
         <v>244</v>
       </c>
       <c r="E246" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G246" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -7766,13 +7766,13 @@
         <v>245</v>
       </c>
       <c r="E247" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G247" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7789,13 +7789,13 @@
         <v>246</v>
       </c>
       <c r="E248" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G248" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -7812,13 +7812,13 @@
         <v>247</v>
       </c>
       <c r="E249" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G249" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -7835,13 +7835,13 @@
         <v>248</v>
       </c>
       <c r="E250" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G250" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -7858,13 +7858,13 @@
         <v>249</v>
       </c>
       <c r="E251" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -7881,13 +7881,13 @@
         <v>250</v>
       </c>
       <c r="E252" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G252" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -7904,13 +7904,13 @@
         <v>251</v>
       </c>
       <c r="E253" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G253" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -7927,13 +7927,13 @@
         <v>252</v>
       </c>
       <c r="E254" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G254" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -7950,13 +7950,13 @@
         <v>253</v>
       </c>
       <c r="E255" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G255" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -7973,13 +7973,13 @@
         <v>254</v>
       </c>
       <c r="E256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F256" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G256" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -7996,13 +7996,13 @@
         <v>255</v>
       </c>
       <c r="E257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G257" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -8019,13 +8019,13 @@
         <v>256</v>
       </c>
       <c r="E258" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G258" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -8042,13 +8042,13 @@
         <v>257</v>
       </c>
       <c r="E259" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G259" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -8065,13 +8065,13 @@
         <v>258</v>
       </c>
       <c r="E260" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G260" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -8088,13 +8088,13 @@
         <v>259</v>
       </c>
       <c r="E261" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G261" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -8111,13 +8111,13 @@
         <v>260</v>
       </c>
       <c r="E262" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G262" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -8134,13 +8134,13 @@
         <v>261</v>
       </c>
       <c r="E263" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G263" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -8157,13 +8157,13 @@
         <v>262</v>
       </c>
       <c r="E264" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -8180,13 +8180,13 @@
         <v>263</v>
       </c>
       <c r="E265" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G265" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -8203,13 +8203,13 @@
         <v>264</v>
       </c>
       <c r="E266" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G266" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -8226,13 +8226,13 @@
         <v>265</v>
       </c>
       <c r="E267" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G267" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -8249,13 +8249,13 @@
         <v>266</v>
       </c>
       <c r="E268" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G268" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -8272,13 +8272,13 @@
         <v>267</v>
       </c>
       <c r="E269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G269" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -8295,13 +8295,13 @@
         <v>268</v>
       </c>
       <c r="E270" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G270" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -8318,13 +8318,13 @@
         <v>269</v>
       </c>
       <c r="E271" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G271" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -8338,16 +8338,16 @@
         <v>14969.52</v>
       </c>
       <c r="D272" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G272" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -8361,16 +8361,16 @@
         <v>14507.34</v>
       </c>
       <c r="D273" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E273" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G273" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -8387,13 +8387,13 @@
         <v>270</v>
       </c>
       <c r="E274" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F274" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G274" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -8410,13 +8410,13 @@
         <v>270</v>
       </c>
       <c r="E275" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F275" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G275" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -8433,13 +8433,13 @@
         <v>271</v>
       </c>
       <c r="E276" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F276" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G276" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -8456,13 +8456,13 @@
         <v>272</v>
       </c>
       <c r="E277" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F277" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G277" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -8479,13 +8479,13 @@
         <v>272</v>
       </c>
       <c r="E278" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F278" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G278" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -8502,13 +8502,13 @@
         <v>273</v>
       </c>
       <c r="E279" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F279" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -8525,13 +8525,13 @@
         <v>274</v>
       </c>
       <c r="E280" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F280" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G280" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -8548,13 +8548,13 @@
         <v>275</v>
       </c>
       <c r="E281" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G281" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -8571,13 +8571,13 @@
         <v>276</v>
       </c>
       <c r="E282" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G282" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -8594,13 +8594,13 @@
         <v>277</v>
       </c>
       <c r="E283" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G283" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -8617,13 +8617,13 @@
         <v>278</v>
       </c>
       <c r="E284" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G284" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -8637,16 +8637,16 @@
         <v>7290.07</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>279</v>
+        <v>549</v>
       </c>
       <c r="E285" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G285" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -8660,16 +8660,16 @@
         <v>7102.62</v>
       </c>
       <c r="D286" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E286" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G286" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -8683,16 +8683,16 @@
         <v>4017.06</v>
       </c>
       <c r="D287" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E287" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G287" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -8706,16 +8706,16 @@
         <v>6153</v>
       </c>
       <c r="D288" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E288" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G288" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -8729,16 +8729,16 @@
         <v>16703</v>
       </c>
       <c r="D289" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E289" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F289" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G289" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -8752,16 +8752,16 @@
         <v>27613.98</v>
       </c>
       <c r="D290" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E290" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F290" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G290" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -8775,16 +8775,16 @@
         <v>26384.07</v>
       </c>
       <c r="D291" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E291" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F291" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G291" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -8798,16 +8798,16 @@
         <v>28460.79</v>
       </c>
       <c r="D292" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E292" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G292" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -8821,16 +8821,16 @@
         <v>31176.5</v>
       </c>
       <c r="D293" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E293" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G293" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -8844,16 +8844,16 @@
         <v>4906.7299999999996</v>
       </c>
       <c r="D294" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E294" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F294" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G294" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -8867,16 +8867,16 @@
         <v>5043.1499999999996</v>
       </c>
       <c r="D295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E295" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F295" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G295" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -8890,16 +8890,16 @@
         <v>19823.7</v>
       </c>
       <c r="D296" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E296" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F296" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G296" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -8913,16 +8913,16 @@
         <v>17523.759999999998</v>
       </c>
       <c r="D297" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E297" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F297" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G297" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -8936,16 +8936,16 @@
         <v>10747.71</v>
       </c>
       <c r="D298" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E298" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F298" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G298" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -8959,16 +8959,16 @@
         <v>8946.08</v>
       </c>
       <c r="D299" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E299" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F299" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G299" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -8982,16 +8982,16 @@
         <v>8906.1299999999992</v>
       </c>
       <c r="D300" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E300" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F300" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G300" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -9005,16 +9005,16 @@
         <v>26731.35</v>
       </c>
       <c r="D301" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E301" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F301" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G301" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -9028,16 +9028,16 @@
         <v>7149.37</v>
       </c>
       <c r="D302" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E302" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F302" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G302" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -9051,16 +9051,16 @@
         <v>15757.3</v>
       </c>
       <c r="D303" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E303" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F303" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G303" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -9074,16 +9074,16 @@
         <v>15249</v>
       </c>
       <c r="D304" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E304" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F304" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G304" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -9097,16 +9097,16 @@
         <v>7182.12</v>
       </c>
       <c r="D305" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E305" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F305" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G305" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -9120,16 +9120,16 @@
         <v>10979.28</v>
       </c>
       <c r="D306" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E306" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F306" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G306" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -9143,16 +9143,16 @@
         <v>16498.009999999998</v>
       </c>
       <c r="D307" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E307" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F307" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G307" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -9166,16 +9166,16 @@
         <v>8844.42</v>
       </c>
       <c r="D308" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E308" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F308" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G308" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -9189,16 +9189,16 @@
         <v>5586.1</v>
       </c>
       <c r="D309" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E309" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F309" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G309" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -9212,16 +9212,16 @@
         <v>36360.370000000003</v>
       </c>
       <c r="D310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F310" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G310" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -9235,16 +9235,16 @@
         <v>21460.29</v>
       </c>
       <c r="D311" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F311" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G311" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -9258,16 +9258,16 @@
         <v>5060.75</v>
       </c>
       <c r="D312" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F312" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G312" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -9281,16 +9281,16 @@
         <v>16643.87</v>
       </c>
       <c r="D313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F313" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G313" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
